--- a/data/regression_name_list446.xlsx
+++ b/data/regression_name_list446.xlsx
@@ -462,7 +462,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2046,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2471,7 +2471,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2519,7 +2519,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2574,7 +2574,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2663,7 +2663,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2759,7 +2759,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2807,7 +2807,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2951,7 +2951,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3102,7 +3102,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3239,7 +3239,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3335,7 +3335,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3383,7 +3383,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3527,7 +3527,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3575,7 +3575,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3630,7 +3630,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3719,7 +3719,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3767,7 +3767,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3815,7 +3815,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4007,7 +4007,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4055,7 +4055,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4103,7 +4103,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4158,7 +4158,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4199,7 +4199,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4247,7 +4247,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4686,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
